--- a/STATS_INSIGHT.xlsx
+++ b/STATS_INSIGHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lap14482/Desktop/trung_tech_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BEFCA9-1FC7-314C-AE22-D7FA27CA1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A4FE4-544D-E14A-B2D5-865106DE303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{AC76F582-B089-8F4C-B9A8-9D56A4F47314}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="H1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
